--- a/June 2018/Linear Weekend-Weekday - Price-Senstivity/Weekday_Weekend.xlsx
+++ b/June 2018/Linear Weekend-Weekday - Price-Senstivity/Weekday_Weekend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rep-1228\Root\Project_Bugflow\June18_newObjective\June2018_newobj_troubleshooting\Linearization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Class project\GCD_BugFlowExperiment\June 2018\Linear Weekend-Weekday - Price-Senstivity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9F4CAC3-FCE1-4D2D-A27E-A65FD5FBDE70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0A437C-701F-476F-8349-E8EE2A2C6307}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7932" xr2:uid="{189A0A50-07A6-4EB0-977C-F1547270289A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="7644" xr2:uid="{486D7E3A-C4B5-420E-BAF7-5C189C22127B}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="29" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2602" uniqueCount="197">
   <si>
     <t>XStore_unsteady</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Model Results for the scenarios</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Mar_Ramp</t>
@@ -1032,7 +1035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF813ADA-68B6-4C87-8B31-9D95F4BEB49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156F2920-BCFA-4BFE-9C46-20B9A6A5B6EA}">
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1041,27 +1044,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1070,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1078,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1087,15 +1090,15 @@
         <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1104,15 +1107,15 @@
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1121,15 +1124,15 @@
         <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1138,15 +1141,15 @@
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1155,15 +1158,15 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1172,15 +1175,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1189,15 +1192,15 @@
         <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1206,15 +1209,15 @@
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1223,15 +1226,15 @@
         <v>2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1240,15 +1243,15 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1257,15 +1260,15 @@
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1274,15 +1277,15 @@
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1291,15 +1294,15 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1308,15 +1311,15 @@
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1325,15 +1328,15 @@
         <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1342,15 +1345,15 @@
         <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1359,15 +1362,15 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1376,15 +1379,15 @@
         <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1393,15 +1396,15 @@
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1410,15 +1413,15 @@
         <v>2</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1427,15 +1430,15 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1444,15 +1447,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1461,15 +1464,15 @@
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1478,15 +1481,15 @@
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1495,15 +1498,15 @@
         <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1512,15 +1515,15 @@
         <v>30</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1529,15 +1532,15 @@
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -1546,15 +1549,15 @@
         <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1563,15 +1566,15 @@
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1580,15 +1583,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1597,15 +1600,15 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1614,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1622,7 +1625,7 @@
         <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1639,7 +1642,7 @@
         <v>56</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1653,10 +1656,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1665,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1673,7 +1676,7 @@
         <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1687,10 +1690,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1699,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1707,7 +1710,7 @@
         <v>28</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1721,10 +1724,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1741,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1758,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1775,7 +1778,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1792,7 +1795,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1806,10 +1809,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1818,15 +1821,15 @@
         <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1835,15 +1838,15 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1852,15 +1855,15 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1869,15 +1872,15 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1886,15 +1889,15 @@
         <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1903,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1911,7 +1914,7 @@
         <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -1925,10 +1928,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1937,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1945,7 +1948,7 @@
         <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1959,10 +1962,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1971,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1979,7 +1982,7 @@
         <v>26</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -1993,10 +1996,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2005,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2013,7 +2016,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -2030,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -2044,70 +2047,70 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{5E0E4406-5AED-4031-9F78-B5677F67D4F2}"/>
-    <hyperlink ref="A3" location="case!A1" display="case" xr:uid="{7484610B-22AC-4B47-A68D-0FD3EF486145}"/>
-    <hyperlink ref="A4" location="Scalar!A1" display="Convert" xr:uid="{5D18D411-8EDD-4C13-BF23-DDBB931B44E9}"/>
-    <hyperlink ref="A5" location="d!A1" display="d" xr:uid="{5E37C240-E315-46E4-973B-8A116EBB9449}"/>
-    <hyperlink ref="A6" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{D7BFF8DE-EB4A-4E9A-83D0-F8F6617B9901}"/>
-    <hyperlink ref="A7" location="Duration!A1" display="Duration" xr:uid="{664700AD-B0EE-4452-95D8-8A7B634D63F0}"/>
-    <hyperlink ref="A8" location="EnergyRate!A1" display="EnergyRate" xr:uid="{B258AC67-D62A-41B6-9855-CCBEB47DD019}"/>
-    <hyperlink ref="A9" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{165213C3-5424-40F1-9342-49ADF36CF47D}"/>
-    <hyperlink ref="A10" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{0A081545-A824-4CF5-933E-768D70860F3A}"/>
-    <hyperlink ref="A11" location="EQ11_EnergyGen_Max!A1" display="EQ11_EnergyGen_Max" xr:uid="{40D0139B-71C9-4D73-AC3D-029FC8978D1B}"/>
-    <hyperlink ref="A12" location="Scalar!A1" display="EQ12_EnergyRevenue" xr:uid="{1F9791FF-9C4A-4406-B83A-126931494FC6}"/>
-    <hyperlink ref="A13" location="Scalar!A1" display="EQ13_Revenue" xr:uid="{B7620D4D-0F5D-4791-83A9-E1A0A0830D9D}"/>
-    <hyperlink ref="A14" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{3D77100F-152E-4EC1-9F8E-08E87BC035D7}"/>
-    <hyperlink ref="A15" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{70F87808-2855-4C2E-ACC9-E9B32FF2C48A}"/>
-    <hyperlink ref="A16" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{1DF160E6-AD50-49ED-9F44-A5F228336FC0}"/>
-    <hyperlink ref="A17" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{57462CAE-C2D3-4178-BAA3-11FF9E5378E5}"/>
-    <hyperlink ref="A18" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{6CDC8199-D891-4286-B703-D4DC28C52AB9}"/>
-    <hyperlink ref="A19" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{6A4AAB6B-6F09-4E93-9667-8FBDC3981252}"/>
-    <hyperlink ref="A20" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{80652F61-D4D4-4AD2-A7B3-F46BC0BA588B}"/>
-    <hyperlink ref="A21" location="Scalar!A1" display="EQ8_Steadyflow" xr:uid="{261E027A-3E02-460A-837C-E0F9318D0A2A}"/>
-    <hyperlink ref="A22" location="EQ9_SteadyEnergy!A1" display="EQ9_SteadyEnergy" xr:uid="{C506DB99-EB73-42F6-A07F-F4B3DE20B2DC}"/>
-    <hyperlink ref="A23" location="Scalar!A1" display="EQa_Inflow" xr:uid="{021428AD-93EC-4671-A017-2AE1F54C1696}"/>
-    <hyperlink ref="A24" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{4B86180D-2F1F-449F-9C2E-1293447FD105}"/>
-    <hyperlink ref="A25" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{EBD2EF33-CF75-42CB-8028-352C4911346A}"/>
-    <hyperlink ref="A26" location="Scalar!A1" display="evap" xr:uid="{2964FA69-86C5-4ADA-8B27-778B1D86A376}"/>
-    <hyperlink ref="A27" location="FStore!A1" display="FStore" xr:uid="{6A503C51-F1DF-45D6-9566-629A79A2BF36}"/>
-    <hyperlink ref="A28" location="Inflow!A1" display="Inflow" xr:uid="{14ABD2BF-F6C3-4D9A-9A19-35A41E66FA5C}"/>
-    <hyperlink ref="A29" location="Scalar!A1" display="initstorage" xr:uid="{278DD2C5-01B9-424D-9190-2D8328796E86}"/>
-    <hyperlink ref="A30" location="Mar_Ramp!A1" display="Mar_Ramp" xr:uid="{43F243BA-CD7F-4304-A2E9-7921883F806F}"/>
-    <hyperlink ref="A31" location="Scalar!A1" display="maxRel" xr:uid="{B1C30B13-30B2-4E6F-A302-D0B97F374B47}"/>
-    <hyperlink ref="A32" location="Scalar!A1" display="maxstorage" xr:uid="{82419AE6-89C6-4A9F-A899-32B8FA8DCD26}"/>
-    <hyperlink ref="A33" location="Scalar!A1" display="minRel" xr:uid="{4FE123F8-181F-41E6-BA41-288F0DB482B5}"/>
-    <hyperlink ref="A34" location="Scalar!A1" display="minstorage" xr:uid="{761D90F8-A13A-413B-93B4-34E0EF612671}"/>
-    <hyperlink ref="A35" location="ModelResults!A1" display="ModelResults" xr:uid="{8089E82D-CA32-41EB-9DA4-B9E9DF5791A2}"/>
-    <hyperlink ref="A36" location="modpar!A1" display="modpar" xr:uid="{CABB444D-B211-4214-A599-0D4A156D52F7}"/>
-    <hyperlink ref="A37" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{214127B9-5CBE-4A14-B01F-71D2421C3AA6}"/>
-    <hyperlink ref="A38" location="Num_steady!A1" display="Num_steady" xr:uid="{DE9308C2-32B9-4680-8E0D-965AE51875C4}"/>
-    <hyperlink ref="A39" location="Scalar!A1" display="ObjectiveVal" xr:uid="{E5B07DFF-CFD8-4325-A4B9-F4E1F1537EF6}"/>
-    <hyperlink ref="A40" location="p!A1" display="p" xr:uid="{8732B81C-7A81-4682-AFB6-9D30E8CA3609}"/>
-    <hyperlink ref="A42" location="RStore_steady!A1" display="RStore_steady" xr:uid="{D36E2326-A8F7-4352-AAF6-28803D890425}"/>
-    <hyperlink ref="A43" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{0EDD79B3-5022-4087-903F-F2F52B4B17C1}"/>
-    <hyperlink ref="A44" location="Sstore!A1" display="Sstore" xr:uid="{6C7265EA-9CBB-4D85-8558-6451E16D4F4A}"/>
-    <hyperlink ref="A45" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{BA5E8215-3E45-4205-A1F6-B42F5EBB0CE4}"/>
-    <hyperlink ref="A46" location="Scalar!A1" display="Steady_Days" xr:uid="{D80BE8B5-8E2A-4A1F-B6D2-40363452D0DB}"/>
-    <hyperlink ref="A47" location="Scalar!A1" display="steady_Outflow" xr:uid="{3C3457A1-48F6-4B41-B599-BBDA2CF10D4C}"/>
-    <hyperlink ref="A48" location="Scalar!A1" display="Steady_Release" xr:uid="{79BC3774-F45C-4C1E-B5B2-78019064D7D7}"/>
-    <hyperlink ref="A49" location="Scalar!A1" display="storage" xr:uid="{675073E7-4CCC-4C24-8E6C-55A0A6AE4B47}"/>
-    <hyperlink ref="A50" location="Scalar!A1" display="Totaldays" xr:uid="{E4BC168E-14AC-4EBD-A619-E242B24E3093}"/>
-    <hyperlink ref="A51" location="Scalar!A1" display="TotMonth_volume" xr:uid="{400FD199-41BA-4AF0-94EF-F1ECA74D3A2F}"/>
-    <hyperlink ref="A52" location="tot_vol!A1" display="tot_vol" xr:uid="{AB7306C5-457C-4E9C-817D-C3FF00B91E00}"/>
-    <hyperlink ref="A53" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{977FC195-B285-4386-A1E9-A783C24E4ABD}"/>
-    <hyperlink ref="A54" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{B7F9C28C-DAD8-4E90-8B2C-F8711FC54A39}"/>
-    <hyperlink ref="A55" location="Scalar!A1" display="weekdays" xr:uid="{5768BCE6-D914-4696-A967-F741D2F41286}"/>
-    <hyperlink ref="A56" location="weekendRate!A1" display="weekendRate" xr:uid="{34FDC6A8-C0B4-4735-BD47-CC7586FE5CFF}"/>
-    <hyperlink ref="A57" location="Scalar!A1" display="weekends" xr:uid="{22BAAB5B-846E-4389-A0FA-ADE2795F3CCB}"/>
-    <hyperlink ref="A58" location="XStore_steady!A1" display="XStore_steady" xr:uid="{9292DFDC-E2CD-4ACF-A43A-CF64266F69BE}"/>
-    <hyperlink ref="A59" location="XStore_unsteady!A1" display="XStore_unsteady" xr:uid="{6DDB28D1-5C12-444E-BC3E-C85FACF663AB}"/>
+    <hyperlink ref="A2" location="Scalar!A1" display="Avail_Water" xr:uid="{B1193193-1463-409D-9BAA-4669904B4EFE}"/>
+    <hyperlink ref="A3" location="case!A1" display="case" xr:uid="{29A78905-BA7C-4898-B4A7-3A26F1F211C5}"/>
+    <hyperlink ref="A4" location="Scalar!A1" display="Convert" xr:uid="{0D41C4F8-AA33-496C-AB18-F6A2DAFE4366}"/>
+    <hyperlink ref="A5" location="d!A1" display="d" xr:uid="{9E87876B-AA0A-4B03-9E66-4C1EB759222D}"/>
+    <hyperlink ref="A6" location="Scalar!A1" display="Daily_Ramprate" xr:uid="{FF6916FB-6CFB-4D2F-9D0F-001572AF4C25}"/>
+    <hyperlink ref="A7" location="Duration!A1" display="Duration" xr:uid="{E7E57266-6EE6-4479-B8E8-96FD20FDF1A5}"/>
+    <hyperlink ref="A8" location="EnergyRate!A1" display="EnergyRate" xr:uid="{E98FD9BD-B251-4232-9B90-52C19CB302BF}"/>
+    <hyperlink ref="A9" location="Energy_Gen!A1" display="Energy_Gen" xr:uid="{4882E815-D301-4741-AA90-12861D3E5A1C}"/>
+    <hyperlink ref="A10" location="EQ10_EnergyGen!A1" display="EQ10_EnergyGen" xr:uid="{EBAE4F63-2261-4517-B3C1-264064113071}"/>
+    <hyperlink ref="A11" location="EQ11_EnergyGen_Max!A1" display="EQ11_EnergyGen_Max" xr:uid="{23D6BAA5-0908-473B-BBAC-DA5E54933DF6}"/>
+    <hyperlink ref="A12" location="Scalar!A1" display="EQ12_EnergyRevenue" xr:uid="{C13E4889-1BFA-4316-9B0C-DBD29F607D28}"/>
+    <hyperlink ref="A13" location="Scalar!A1" display="EQ13_Revenue" xr:uid="{375A3A7E-E420-4A4F-97F0-D7B65EE642AA}"/>
+    <hyperlink ref="A14" location="Scalar!A1" display="EQ1__ResMassBal" xr:uid="{DAAA59BF-3D24-44F1-9381-202B81233D97}"/>
+    <hyperlink ref="A15" location="Scalar!A1" display="EQ2__reqpowerstorage" xr:uid="{4DF7937D-5AF6-4CFB-93CF-022FD3EC6449}"/>
+    <hyperlink ref="A16" location="Scalar!A1" display="EQ3__maxstor" xr:uid="{0AF68287-448B-41C0-AF48-52D99D959766}"/>
+    <hyperlink ref="A17" location="EQ4__MaxR!A1" display="EQ4__MaxR" xr:uid="{2B484788-A8D2-4476-873A-AE97BEBB522D}"/>
+    <hyperlink ref="A18" location="EQ5__MinR!A1" display="EQ5__MinR" xr:uid="{252AC50E-EF5F-4EE7-ABF3-9209E5D56FBA}"/>
+    <hyperlink ref="A19" location="EQ6_Rampup_rate!A1" display="EQ6_Rampup_rate" xr:uid="{153477F1-53E3-4CF6-98B1-CAF895F5DA16}"/>
+    <hyperlink ref="A20" location="Scalar!A1" display="EQ7__Monthtlyrel" xr:uid="{99986C91-4503-43A0-972C-6F0271637104}"/>
+    <hyperlink ref="A21" location="Scalar!A1" display="EQ8_Steadyflow" xr:uid="{1584BDC0-F735-40AF-A143-3551B12A676A}"/>
+    <hyperlink ref="A22" location="EQ9_SteadyEnergy!A1" display="EQ9_SteadyEnergy" xr:uid="{1E1BE717-A60C-4B9F-B3FF-48F8806C7B0D}"/>
+    <hyperlink ref="A23" location="Scalar!A1" display="EQa_Inflow" xr:uid="{1A48F43D-694C-46D1-A530-819D9F8EA6BD}"/>
+    <hyperlink ref="A24" location="Scalar!A1" display="EQb_SteadyOutflow" xr:uid="{58F8E7EF-80F1-4EB9-9F00-B9BC06C59AD2}"/>
+    <hyperlink ref="A25" location="Scalar!A1" display="EQc_UnSteadyOutflow" xr:uid="{33B6D7D4-7EC1-4401-824F-BA18332CC12C}"/>
+    <hyperlink ref="A26" location="Scalar!A1" display="evap" xr:uid="{35B16075-E47F-43C3-8F13-C7CE9C61AB84}"/>
+    <hyperlink ref="A27" location="FStore!A1" display="FStore" xr:uid="{B9305C0E-29E1-49EF-B783-1D5E4952146F}"/>
+    <hyperlink ref="A28" location="Inflow!A1" display="Inflow" xr:uid="{9F4663CF-EEAA-4152-8E91-EA6C0DD8BDF0}"/>
+    <hyperlink ref="A29" location="Scalar!A1" display="initstorage" xr:uid="{1C895F37-8E71-4AED-A419-361582E4422D}"/>
+    <hyperlink ref="A30" location="Mar_Ramp!A1" display="Mar_Ramp" xr:uid="{CB05B321-D2BA-4147-BF96-E044D29F03B4}"/>
+    <hyperlink ref="A31" location="Scalar!A1" display="maxRel" xr:uid="{B019F5F8-6B5F-4851-903E-3698EF3DF0E6}"/>
+    <hyperlink ref="A32" location="Scalar!A1" display="maxstorage" xr:uid="{238CD3F4-92CD-498C-A904-9BD6ED0F75B7}"/>
+    <hyperlink ref="A33" location="Scalar!A1" display="minRel" xr:uid="{651219A7-4FFA-444D-9F85-7F5559CF4F58}"/>
+    <hyperlink ref="A34" location="Scalar!A1" display="minstorage" xr:uid="{9249C2B8-D4AE-4879-9646-3225676B21DD}"/>
+    <hyperlink ref="A35" location="ModelResults!A1" display="ModelResults" xr:uid="{7B2BF91C-A67E-4CF3-B644-EA7CEFCBB9E1}"/>
+    <hyperlink ref="A36" location="modpar!A1" display="modpar" xr:uid="{CF493E0E-491F-4064-BD82-4CFCFC86502F}"/>
+    <hyperlink ref="A37" location="Scalar!A1" display="Num_of_timesteps" xr:uid="{F41B15B7-C20B-4AB3-968B-753B67B2C792}"/>
+    <hyperlink ref="A38" location="Num_steady!A1" display="Num_steady" xr:uid="{5CFF962F-ADF0-43A2-A3F0-79CED046268B}"/>
+    <hyperlink ref="A39" location="Scalar!A1" display="ObjectiveVal" xr:uid="{343592A3-BD5E-49CC-B2E3-30EABDB999CC}"/>
+    <hyperlink ref="A40" location="p!A1" display="p" xr:uid="{99D6D681-BB9A-4881-A79B-B109E8ADAE30}"/>
+    <hyperlink ref="A42" location="RStore_steady!A1" display="RStore_steady" xr:uid="{D8463505-8204-41FC-BB86-35412D153682}"/>
+    <hyperlink ref="A43" location="RStore_unsteady!A1" display="RStore_unsteady" xr:uid="{1273F309-3B61-4476-A85A-44A3EF319457}"/>
+    <hyperlink ref="A44" location="Sstore!A1" display="Sstore" xr:uid="{3F240329-B63F-49E1-8544-49013F0B3255}"/>
+    <hyperlink ref="A45" location="SteadyEn_Gen!A1" display="SteadyEn_Gen" xr:uid="{25292100-00CD-493A-9B25-69FEA3D7F4B0}"/>
+    <hyperlink ref="A46" location="Scalar!A1" display="Steady_Days" xr:uid="{9C3CD1C5-C696-4D7C-BEB3-75D2F1E7C94C}"/>
+    <hyperlink ref="A47" location="Scalar!A1" display="steady_Outflow" xr:uid="{F00681F2-AC03-44AC-AA2B-A91CC36D64C0}"/>
+    <hyperlink ref="A48" location="Scalar!A1" display="Steady_Release" xr:uid="{9812542E-2E46-4C29-9B81-C31E6A6F4E8D}"/>
+    <hyperlink ref="A49" location="Scalar!A1" display="storage" xr:uid="{F43336B7-B291-4DD7-B010-DE71E94136E7}"/>
+    <hyperlink ref="A50" location="Scalar!A1" display="Totaldays" xr:uid="{8EB37CEA-CD92-4520-B385-0C9DAD221850}"/>
+    <hyperlink ref="A51" location="Scalar!A1" display="TotMonth_volume" xr:uid="{C52D4B0C-5C82-424F-B0D1-8F9DED259D6C}"/>
+    <hyperlink ref="A52" location="tot_vol!A1" display="tot_vol" xr:uid="{31E8BC5A-2C38-4EF3-B341-B4D6B7B2131E}"/>
+    <hyperlink ref="A53" location="Scalar!A1" display="unsteady_Outflow" xr:uid="{2F23DD5A-D525-4241-BF29-82065A01DF34}"/>
+    <hyperlink ref="A54" location="Vol_monthlyrelease!A1" display="Vol_monthlyrelease" xr:uid="{8DE40470-EE84-4006-828C-A9AD4F96EFA5}"/>
+    <hyperlink ref="A55" location="Scalar!A1" display="weekdays" xr:uid="{E30BD46D-D86E-473D-964C-38555E0FCF20}"/>
+    <hyperlink ref="A56" location="weekendRate!A1" display="weekendRate" xr:uid="{B7EBD42B-2DE8-47AE-9801-D649C0CA20A5}"/>
+    <hyperlink ref="A57" location="Scalar!A1" display="weekends" xr:uid="{E38BEF39-BE26-4B29-888F-50111F941812}"/>
+    <hyperlink ref="A58" location="XStore_steady!A1" display="XStore_steady" xr:uid="{179F78EA-AA4F-4710-893F-7F3EFEA2C8DF}"/>
+    <hyperlink ref="A59" location="XStore_unsteady!A1" display="XStore_unsteady" xr:uid="{1A359F3B-BA70-4D26-A218-1E4E181AD3BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D85FEE-07D0-41EA-A9DC-F7845B2B62AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95D9F645-7BC4-494E-94CD-FCF928293F01}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2124,13 +2127,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2158,7 +2161,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>18406.961178045516</v>
+        <v>17406.961178045516</v>
       </c>
       <c r="D4">
         <v>32000</v>
@@ -2185,16 +2188,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{B4477417-DE7A-4F86-8968-2A2DA2EDA5C7}"/>
+  <autoFilter ref="A3:E5" xr:uid="{FD7A1911-8E5F-4CC5-A037-7A0F4D1F1EB8}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{255969F5-CEA1-49FC-A611-E32E9C0AD9FF}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3B133DE2-C4E6-4D84-B8C9-259B1F481403}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCA1D71-14C9-4CF0-AC5F-CA03719EB4F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB1A1568-EA3B-41A5-894C-2A898012D8FB}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2211,13 +2214,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2245,7 +2248,7 @@
         <v>8000</v>
       </c>
       <c r="C4">
-        <v>18406.961178045516</v>
+        <v>17406.961178045516</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -2272,16 +2275,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{E66D9AFB-49C0-4267-84F2-042BCC090D5C}"/>
+  <autoFilter ref="A3:E5" xr:uid="{EE9C7027-9670-4A4B-80D2-6B6F81D47A07}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{74B883EF-D0F4-414B-BF18-DF955971A146}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1C8F1A4D-DB69-42E2-A068-A55D514BC0EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15A705B-7802-4741-96CC-82630AB2C05D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79C0F0A-0109-4890-AB0E-1EAA1651A10B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2298,13 +2301,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2332,7 +2335,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>-10406.961178045516</v>
+        <v>-9406.9611780455161</v>
       </c>
       <c r="D4">
         <v>8000</v>
@@ -2349,7 +2352,7 @@
         <v>42</v>
       </c>
       <c r="C5">
-        <v>-10406.961178045516</v>
+        <v>-9406.9611780455161</v>
       </c>
       <c r="D5">
         <v>8000</v>
@@ -2359,16 +2362,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F497674C-FBA3-4E8B-B1D7-90904DBCFBE7}"/>
+  <autoFilter ref="A3:E5" xr:uid="{CA1D0127-14DD-4B61-8D95-F4BFD34F3E2E}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{88DAE7B2-6681-4DFD-A199-2AA5091F3C39}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CB6F034F-D4FE-4BB5-A068-290F723D5962}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5691C93E-EC12-41AF-81B0-2879F1AFD241}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949B8BA4-DDEA-4DAB-A1EE-F7062B4EE9C2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2385,13 +2388,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -2446,16 +2449,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{279B7E96-3D6C-4B42-BE12-B07F4AE897FB}"/>
+  <autoFilter ref="A3:E5" xr:uid="{8CF389D0-7318-4351-816E-10B3DA5F2A30}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5D63A620-A961-4F71-8243-4906BA560327}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D89EFEC6-4821-4FC2-9F8B-0F06E124FA87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6E8D20F-37BB-452C-980E-6505EB454067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E3C572-9E15-4870-9243-9BA6A51D4A99}">
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2472,13 +2475,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2511,7 +2514,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>16683168.403514365</v>
+        <v>16441209.460932283</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2522,7 +2525,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>16864011.316594377</v>
+        <v>16491984.15916007</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2533,7 +2536,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>16966226.876161344</v>
+        <v>16605250.793668211</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2544,7 +2547,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>17077734.759325303</v>
+        <v>16737395.200594377</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2555,7 +2558,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>17077734.759325299</v>
+        <v>16893565.863325302</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2566,7 +2569,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>17021974.56479786</v>
+        <v>16885892.159325298</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2577,7 +2580,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>16896466.872708973</v>
+        <v>16878218.455325302</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2588,7 +2591,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>16708205.334575638</v>
+        <v>16646815.702575639</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2599,7 +2602,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>16394436.104353417</v>
+        <v>16353509.683020083</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2610,7 +2613,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>16080666.874131193</v>
+        <v>16060203.663464528</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2643,7 +2646,7 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>19159794.53419438</v>
+        <v>18968463.514461044</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2654,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>19279845.37010549</v>
+        <v>19017234.166549936</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2665,7 +2668,7 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>19339870.788061045</v>
+        <v>19114775.470727712</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2676,7 +2679,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>19399896.2060166</v>
+        <v>19212316.774905492</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2687,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>19337142.359972157</v>
+        <v>19309858.079083268</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2698,7 +2701,7 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>19274388.513927713</v>
+        <v>19251196.875172157</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2709,7 +2712,7 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <v>19148880.821838826</v>
+        <v>19192535.671261046</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2720,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>18960619.283705488</v>
+        <v>18899229.651705489</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2731,7 +2734,7 @@
         <v>16</v>
       </c>
       <c r="C25">
-        <v>18646850.05348327</v>
+        <v>18605923.632149938</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2742,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="C26">
-        <v>18333080.823261045</v>
+        <v>18312617.612594377</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2775,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>21412208.483324233</v>
+        <v>21220877.463590898</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2786,7 +2789,7 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>21532259.319235343</v>
+        <v>21269648.115679786</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2797,7 +2800,7 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>21592284.737190899</v>
+        <v>21367189.419857565</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2808,7 +2811,7 @@
         <v>11</v>
       </c>
       <c r="C32">
-        <v>21652310.15514645</v>
+        <v>21464730.724035345</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2819,7 +2822,7 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>21589556.309102006</v>
+        <v>21562272.028213117</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2830,7 +2833,7 @@
         <v>13</v>
       </c>
       <c r="C34">
-        <v>21526802.463057566</v>
+        <v>21503610.824302007</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2841,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="C35">
-        <v>21401294.770968676</v>
+        <v>21444949.620390899</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2852,7 +2855,7 @@
         <v>15</v>
       </c>
       <c r="C36">
-        <v>21213033.232835341</v>
+        <v>21151643.600835342</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2863,7 +2866,7 @@
         <v>16</v>
       </c>
       <c r="C37">
-        <v>20899264.00261312</v>
+        <v>20858337.581279788</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2874,7 +2877,7 @@
         <v>17</v>
       </c>
       <c r="C38">
-        <v>20585494.772390898</v>
+        <v>20565031.561724231</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2907,7 +2910,7 @@
         <v>8</v>
       </c>
       <c r="C41">
-        <v>23664622.432454087</v>
+        <v>23473291.412720751</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2918,7 +2921,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>23784673.268365197</v>
+        <v>23522062.064809643</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2929,7 +2932,7 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <v>23844698.686320752</v>
+        <v>23619603.368987419</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2940,7 +2943,7 @@
         <v>11</v>
       </c>
       <c r="C44">
-        <v>23904724.104276303</v>
+        <v>23717144.673165198</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2951,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>23841970.25823186</v>
+        <v>23814685.977342971</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2962,7 +2965,7 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>23779216.41218742</v>
+        <v>23756024.77343186</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2973,7 +2976,7 @@
         <v>14</v>
       </c>
       <c r="C47">
-        <v>23653708.720098533</v>
+        <v>23697363.569520753</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2984,7 +2987,7 @@
         <v>15</v>
       </c>
       <c r="C48">
-        <v>23465447.181965195</v>
+        <v>23404057.549965195</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2995,7 +2998,7 @@
         <v>16</v>
       </c>
       <c r="C49">
-        <v>23151677.951742977</v>
+        <v>23110751.530409645</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3006,7 +3009,7 @@
         <v>17</v>
       </c>
       <c r="C50">
-        <v>22837908.721520752</v>
+        <v>22817445.510854084</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3039,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="C53">
-        <v>25917036.38158394</v>
+        <v>25725705.361850604</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3050,7 +3053,7 @@
         <v>9</v>
       </c>
       <c r="C54">
-        <v>26037087.21749505</v>
+        <v>25774476.013939492</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3061,7 +3064,7 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>26097112.635450605</v>
+        <v>25872017.318117272</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3072,7 +3075,7 @@
         <v>11</v>
       </c>
       <c r="C56">
-        <v>26157138.053406157</v>
+        <v>25969558.622295052</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3083,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>26094384.207361713</v>
+        <v>26067099.926472824</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3094,7 +3097,7 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>26031630.361317273</v>
+        <v>26008438.722561713</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3105,7 +3108,7 @@
         <v>14</v>
       </c>
       <c r="C59">
-        <v>25906122.669228382</v>
+        <v>25949777.518650606</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3116,7 +3119,7 @@
         <v>15</v>
       </c>
       <c r="C60">
-        <v>25717861.131095048</v>
+        <v>25656471.499095049</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3127,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="C61">
-        <v>25404091.900872827</v>
+        <v>25363165.479539495</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3138,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="C62">
-        <v>25090322.670650605</v>
+        <v>25069859.459983937</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -3153,16 +3156,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C63" xr:uid="{755B994C-B5C6-48FF-B7A1-C0060F8AC636}"/>
+  <autoFilter ref="A3:C63" xr:uid="{834F9D25-0858-4AD1-8459-E6EF0A40872F}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9910C4C4-FC75-4DFF-8F4B-E4BDA0CE050A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{F277FA86-940A-4819-A017-11193C509C44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3553418D-D10A-4E13-BA97-1CB8C0F74970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC69D791-515C-4672-9AE3-E8F490E37C31}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3179,18 +3182,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3198,7 +3201,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>22004</v>
@@ -3206,7 +3209,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>16148</v>
@@ -3214,7 +3217,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>19019</v>
@@ -3222,7 +3225,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>18165</v>
@@ -3230,7 +3233,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8">
         <v>19528</v>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9">
         <v>16868</v>
@@ -3246,7 +3249,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10">
         <v>14871</v>
@@ -3254,7 +3257,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11">
         <v>16358</v>
@@ -3262,7 +3265,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12">
         <v>12903</v>
@@ -3270,7 +3273,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13">
         <v>14532</v>
@@ -3278,7 +3281,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14">
         <v>12022</v>
@@ -3286,7 +3289,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15">
         <v>11106</v>
@@ -3294,7 +3297,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>8638</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17">
         <v>13191</v>
@@ -3310,7 +3313,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18">
         <v>6440</v>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19">
         <v>8314</v>
@@ -3326,7 +3329,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20">
         <v>6074</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B21">
         <v>7014</v>
@@ -3342,7 +3345,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22">
         <v>9947</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>6905</v>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B24">
         <v>5919</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B25">
         <v>9277</v>
@@ -3374,7 +3377,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26">
         <v>7507</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27">
         <v>7506</v>
@@ -3390,7 +3393,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>4381</v>
@@ -3398,7 +3401,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>5891</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B30">
         <v>5926</v>
@@ -3414,7 +3417,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B31">
         <v>4186</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>3710</v>
@@ -3430,23 +3433,23 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33">
         <v>5803</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B33" xr:uid="{BF9E75C7-AE34-4295-82C8-8C41B7F9B490}"/>
+  <autoFilter ref="A3:B33" xr:uid="{9D31ABAA-B7B5-47D2-B871-7B3ADA28570C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A89FF42D-7DB3-4224-BBC6-87D55B60DB29}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E5BBDD84-300D-4661-975D-CC5FCE6B2D0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA24CCF-6526-4B87-89C8-A5CFDB9FAFA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE8ED80-94A1-41B1-A661-C79CE909F5F6}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3463,13 +3466,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3664,8 +3667,8 @@
       <c r="C16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D16">
-        <v>156.88461511111109</v>
+      <c r="D16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3692,8 +3695,8 @@
       <c r="C18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D18">
-        <v>141.19615360000009</v>
+      <c r="D18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3861,7 +3864,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>142.5603676444444</v>
+        <v>120.05083591111109</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3889,7 +3892,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>157.56672213333331</v>
+        <v>127.55401315555558</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3917,7 +3920,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>165.0698993777778</v>
+        <v>142.5603676444444</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3945,7 +3948,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>172.57307662222229</v>
+        <v>157.56672213333331</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3973,7 +3976,7 @@
         <v>29</v>
       </c>
       <c r="D38">
-        <v>164.72884586666669</v>
+        <v>172.57307662222229</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4001,7 +4004,7 @@
         <v>29</v>
       </c>
       <c r="D40">
-        <v>156.88461511111109</v>
+        <v>164.72884586666669</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4029,7 +4032,7 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>141.19615360000009</v>
+        <v>156.88461511111109</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4197,7 +4200,7 @@
         <v>29</v>
       </c>
       <c r="D54">
-        <v>142.5603676444444</v>
+        <v>120.05083591111109</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4225,7 +4228,7 @@
         <v>29</v>
       </c>
       <c r="D56">
-        <v>157.56672213333331</v>
+        <v>127.55401315555558</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4253,7 +4256,7 @@
         <v>29</v>
       </c>
       <c r="D58">
-        <v>165.0698993777778</v>
+        <v>142.5603676444444</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4281,7 +4284,7 @@
         <v>29</v>
       </c>
       <c r="D60">
-        <v>172.57307662222229</v>
+        <v>157.56672213333331</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4309,7 +4312,7 @@
         <v>29</v>
       </c>
       <c r="D62">
-        <v>164.72884586666669</v>
+        <v>172.57307662222229</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4337,7 +4340,7 @@
         <v>29</v>
       </c>
       <c r="D64">
-        <v>156.88461511111109</v>
+        <v>164.72884586666669</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4365,7 +4368,7 @@
         <v>29</v>
       </c>
       <c r="D66">
-        <v>141.19615360000009</v>
+        <v>156.88461511111109</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4533,7 +4536,7 @@
         <v>29</v>
       </c>
       <c r="D78">
-        <v>142.5603676444444</v>
+        <v>120.05083591111109</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4561,7 +4564,7 @@
         <v>29</v>
       </c>
       <c r="D80">
-        <v>157.56672213333331</v>
+        <v>127.55401315555558</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4589,7 +4592,7 @@
         <v>29</v>
       </c>
       <c r="D82">
-        <v>165.0698993777778</v>
+        <v>142.5603676444444</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4617,7 +4620,7 @@
         <v>29</v>
       </c>
       <c r="D84">
-        <v>172.57307662222229</v>
+        <v>157.56672213333331</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4645,7 +4648,7 @@
         <v>29</v>
       </c>
       <c r="D86">
-        <v>164.72884586666669</v>
+        <v>172.57307662222229</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4673,7 +4676,7 @@
         <v>29</v>
       </c>
       <c r="D88">
-        <v>156.88461511111109</v>
+        <v>164.72884586666669</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4701,7 +4704,7 @@
         <v>29</v>
       </c>
       <c r="D90">
-        <v>141.19615360000009</v>
+        <v>156.88461511111109</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4869,7 +4872,7 @@
         <v>29</v>
       </c>
       <c r="D102">
-        <v>142.5603676444444</v>
+        <v>120.05083591111109</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4897,7 +4900,7 @@
         <v>29</v>
       </c>
       <c r="D104">
-        <v>157.56672213333331</v>
+        <v>127.55401315555558</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4925,7 +4928,7 @@
         <v>29</v>
       </c>
       <c r="D106">
-        <v>165.0698993777778</v>
+        <v>142.5603676444444</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4953,7 +4956,7 @@
         <v>29</v>
       </c>
       <c r="D108">
-        <v>172.57307662222229</v>
+        <v>157.56672213333331</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4981,7 +4984,7 @@
         <v>29</v>
       </c>
       <c r="D110">
-        <v>164.72884586666669</v>
+        <v>172.57307662222229</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5009,7 +5012,7 @@
         <v>29</v>
       </c>
       <c r="D112">
-        <v>156.88461511111109</v>
+        <v>164.72884586666669</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5037,7 +5040,7 @@
         <v>29</v>
       </c>
       <c r="D114">
-        <v>141.19615360000009</v>
+        <v>156.88461511111109</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5167,16 +5170,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{E517C291-29A4-4E2F-AD97-438E8E9CB100}"/>
+  <autoFilter ref="A3:D123" xr:uid="{C652B378-A163-4D14-843C-928A4F7B8FB2}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{81C58D11-2760-4358-BA57-AF4F182B38D2}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CD4194E6-1A5A-4D5C-AAE1-40186A2AF733}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{019CAEE4-96F4-46F3-9500-0CBF29CD28B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27A1D9E-B7D7-471D-A2E8-4A548DD9871A}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5366,8 +5369,8 @@
       <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5380,8 +5383,8 @@
       <c r="C15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6897,16 +6900,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{EE185BD7-5176-408D-B3C6-03F5987F991B}"/>
+  <autoFilter ref="A3:D123" xr:uid="{C90A2F97-A9E6-469F-BC4F-6E4D84EABB99}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CB603B92-3A64-494B-97B3-A92157BEEEA1}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E55C97B6-B011-4314-B5B3-3216CA45D1A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C45A27-EAD3-4776-9F9C-F9698C1483C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF7E8F1-7454-4A83-94C4-E7024CE06CC7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6954,16 +6957,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{D9B3067C-8FFD-4142-A446-59B1A7B34808}"/>
+  <autoFilter ref="A3:A5" xr:uid="{F4F75416-6401-463E-AFCF-48FA9DED8978}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C694F1B6-4D03-43C3-B491-02D351213E74}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{DA36E649-B6F5-4670-B325-E4E42015D8F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B54FCA5-C2AF-4255-80A8-B9FCC698646D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7921EB43-4E82-414B-82E0-13A75812F4D5}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7002,7 +7005,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7010,7 +7013,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7018,7 +7021,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7026,7 +7029,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7034,7 +7037,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7042,7 +7045,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7050,7 +7053,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7086,16 +7089,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B14" xr:uid="{0A5E7596-A5AC-4442-A070-3633371F7978}"/>
+  <autoFilter ref="A3:B14" xr:uid="{02511818-5F9A-4761-B1C6-710B297CA277}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2ABEC60E-440B-416A-AC15-122591BFAC48}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{9CF57D5F-0B39-41B7-BE37-8AC58FC413A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D9C12-88BA-4555-9CB8-B790E93125A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE34D5B9-2035-4B26-912E-0C603AD7DC71}">
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7109,172 +7112,172 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B3">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>8000</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B5">
         <v>1510</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B6">
         <v>12899134</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B7">
         <v>32000</v>
       </c>
       <c r="C7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>25000000</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9">
         <v>8000</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10">
         <v>8950000</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11">
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13">
         <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B14">
         <v>1100000</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B16">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
@@ -7289,12 +7292,12 @@
         <v>41</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
@@ -7309,12 +7312,12 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
@@ -7329,12 +7332,12 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -7349,12 +7352,12 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
@@ -7369,12 +7372,12 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
@@ -7389,12 +7392,12 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
@@ -7409,12 +7412,12 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -7429,12 +7432,12 @@
         <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -7449,12 +7452,12 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -7469,12 +7472,12 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B29">
         <v>-45300</v>
@@ -7489,12 +7492,12 @@
         <v>48</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>8950000</v>
@@ -7509,12 +7512,12 @@
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -7529,12 +7532,12 @@
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B32">
         <v>-1100000</v>
@@ -7549,32 +7552,32 @@
         <v>-22.524139491298527</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E33" t="s">
         <v>48</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B34">
         <v>13536878.776000001</v>
@@ -7589,12 +7592,12 @@
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -7609,12 +7612,12 @@
         <v>-22.524139491298527</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7629,19 +7632,19 @@
         <v>-22.524139491298527</v>
       </c>
       <c r="F36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6F44DD1A-52AB-4E7D-A15F-6FFF5ABA4D3E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{1A93F48F-876A-45EC-82BA-B5D24FEECC73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CB15A4-0F54-496B-A172-6F3907A43C3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1775C90B-9F21-4965-9C2D-3709571ECA1A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7689,16 +7692,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A5" xr:uid="{956C5135-6170-4975-A50A-CE2620D72B7E}"/>
+  <autoFilter ref="A3:A5" xr:uid="{7084D4E8-835B-4EFA-8524-0F214FE217EF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{2347C237-EA86-437D-B473-EE086D538FBD}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{E4F6220F-4A9C-4F71-B12B-EF81F16B5136}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708A7E34-2B1D-4842-8BA9-78C72F9BA342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909AFB1D-1907-40BB-8317-314DDEA7D6CB}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7777,7 +7780,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7791,7 +7794,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7805,7 +7808,7 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7819,7 +7822,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7833,7 +7836,7 @@
         <v>29</v>
       </c>
       <c r="D10">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7847,7 +7850,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7861,7 +7864,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7875,7 +7878,7 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7889,7 +7892,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7903,7 +7906,7 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>8000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7917,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>8157.9651941097727</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7931,7 +7934,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>8157.9651941097727</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7945,7 +7948,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>8513.5207496653275</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7959,7 +7962,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>8513.5207496653275</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7973,7 +7976,7 @@
         <v>29</v>
       </c>
       <c r="D20">
-        <v>9046.8540829986614</v>
+        <v>9546.8540829986614</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7987,7 +7990,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>9046.8540829986614</v>
+        <v>9546.8540829986614</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8001,7 +8004,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>9935.7429718875483</v>
+        <v>10269.076305220882</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8015,7 +8018,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>9935.7429718875483</v>
+        <v>10269.076305220882</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8029,7 +8032,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>10824.631860776439</v>
+        <v>10991.298527443105</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8043,7 +8046,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>10824.631860776439</v>
+        <v>10991.298527443105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8113,7 +8116,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>8764.6586345381529</v>
+        <v>9197.991967871485</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8127,7 +8130,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>8764.6586345381529</v>
+        <v>9197.991967871485</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8141,7 +8144,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>9120.2141900937077</v>
+        <v>9342.4364123159285</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8155,7 +8158,7 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>9120.2141900937077</v>
+        <v>9342.4364123159285</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8169,7 +8172,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>9297.991967871485</v>
+        <v>9631.325301204819</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8183,7 +8186,7 @@
         <v>30</v>
       </c>
       <c r="D35">
-        <v>9297.991967871485</v>
+        <v>9631.325301204819</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8197,7 +8200,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>9475.7697456492642</v>
+        <v>9920.2141900937077</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8211,7 +8214,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>9475.7697456492642</v>
+        <v>9920.2141900937077</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8225,7 +8228,7 @@
         <v>29</v>
       </c>
       <c r="D38">
-        <v>9653.5475234270416</v>
+        <v>10209.103078982596</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8239,7 +8242,7 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>9653.5475234270416</v>
+        <v>10209.103078982596</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8253,7 +8256,7 @@
         <v>29</v>
       </c>
       <c r="D40">
-        <v>9831.325301204819</v>
+        <v>10353.547523427042</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8267,7 +8270,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>9831.325301204819</v>
+        <v>10353.547523427042</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8281,7 +8284,7 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>10186.880856760377</v>
+        <v>10497.991967871485</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8295,7 +8298,7 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <v>10186.880856760377</v>
+        <v>10497.991967871485</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8309,7 +8312,7 @@
         <v>29</v>
       </c>
       <c r="D44">
-        <v>10720.214190093708</v>
+        <v>11220.214190093708</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8323,7 +8326,7 @@
         <v>30</v>
       </c>
       <c r="D45">
-        <v>10720.214190093708</v>
+        <v>11220.214190093708</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8337,7 +8340,7 @@
         <v>29</v>
       </c>
       <c r="D46">
-        <v>11609.103078982596</v>
+        <v>11942.436412315928</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8351,7 +8354,7 @@
         <v>30</v>
       </c>
       <c r="D47">
-        <v>11609.103078982596</v>
+        <v>11942.436412315928</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8365,7 +8368,7 @@
         <v>29</v>
       </c>
       <c r="D48">
-        <v>12497.991967871485</v>
+        <v>12664.658634538153</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8379,7 +8382,7 @@
         <v>30</v>
       </c>
       <c r="D49">
-        <v>12497.991967871485</v>
+        <v>12664.658634538153</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8449,7 +8452,7 @@
         <v>29</v>
       </c>
       <c r="D54">
-        <v>10438.018741633199</v>
+        <v>10871.352074966533</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8463,7 +8466,7 @@
         <v>30</v>
       </c>
       <c r="D55">
-        <v>10438.018741633199</v>
+        <v>10871.352074966533</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8477,7 +8480,7 @@
         <v>29</v>
       </c>
       <c r="D56">
-        <v>10793.574297188756</v>
+        <v>11015.796519410977</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8491,7 +8494,7 @@
         <v>30</v>
       </c>
       <c r="D57">
-        <v>10793.574297188756</v>
+        <v>11015.796519410977</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8505,7 +8508,7 @@
         <v>29</v>
       </c>
       <c r="D58">
-        <v>10971.352074966533</v>
+        <v>11304.685408299867</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8519,7 +8522,7 @@
         <v>30</v>
       </c>
       <c r="D59">
-        <v>10971.352074966533</v>
+        <v>11304.685408299867</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8533,7 +8536,7 @@
         <v>29</v>
       </c>
       <c r="D60">
-        <v>11149.12985274431</v>
+        <v>11593.574297188756</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8547,7 +8550,7 @@
         <v>30</v>
       </c>
       <c r="D61">
-        <v>11149.12985274431</v>
+        <v>11593.574297188756</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8561,7 +8564,7 @@
         <v>29</v>
       </c>
       <c r="D62">
-        <v>11326.907630522088</v>
+        <v>11882.463186077644</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8575,7 +8578,7 @@
         <v>30</v>
       </c>
       <c r="D63">
-        <v>11326.907630522088</v>
+        <v>11882.463186077644</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8589,7 +8592,7 @@
         <v>29</v>
       </c>
       <c r="D64">
-        <v>11504.685408299865</v>
+        <v>12026.907630522088</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8603,7 +8606,7 @@
         <v>30</v>
       </c>
       <c r="D65">
-        <v>11504.685408299865</v>
+        <v>12026.907630522088</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8617,7 +8620,7 @@
         <v>29</v>
       </c>
       <c r="D66">
-        <v>11860.24096385542</v>
+        <v>12171.352074966533</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8631,7 +8634,7 @@
         <v>30</v>
       </c>
       <c r="D67">
-        <v>11860.24096385542</v>
+        <v>12171.352074966533</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8645,7 +8648,7 @@
         <v>29</v>
       </c>
       <c r="D68">
-        <v>12393.574297188756</v>
+        <v>12893.574297188756</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8659,7 +8662,7 @@
         <v>30</v>
       </c>
       <c r="D69">
-        <v>12393.574297188756</v>
+        <v>12893.574297188756</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8673,7 +8676,7 @@
         <v>29</v>
       </c>
       <c r="D70">
-        <v>13282.463186077643</v>
+        <v>13615.796519410978</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8687,7 +8690,7 @@
         <v>30</v>
       </c>
       <c r="D71">
-        <v>13282.463186077643</v>
+        <v>13615.796519410978</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8701,7 +8704,7 @@
         <v>29</v>
       </c>
       <c r="D72">
-        <v>14171.352074966533</v>
+        <v>14338.018741633199</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8715,7 +8718,7 @@
         <v>30</v>
       </c>
       <c r="D73">
-        <v>14171.352074966533</v>
+        <v>14338.018741633199</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8785,7 +8788,7 @@
         <v>29</v>
       </c>
       <c r="D78">
-        <v>12111.378848728245</v>
+        <v>12544.712182061579</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8799,7 +8802,7 @@
         <v>30</v>
       </c>
       <c r="D79">
-        <v>12111.378848728245</v>
+        <v>12544.712182061579</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8813,7 +8816,7 @@
         <v>29</v>
       </c>
       <c r="D80">
-        <v>12466.934404283802</v>
+        <v>12689.156626506023</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8827,7 +8830,7 @@
         <v>30</v>
       </c>
       <c r="D81">
-        <v>12466.934404283802</v>
+        <v>12689.156626506023</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8841,7 +8844,7 @@
         <v>29</v>
       </c>
       <c r="D82">
-        <v>12644.712182061579</v>
+        <v>12978.045515394911</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8855,7 +8858,7 @@
         <v>30</v>
       </c>
       <c r="D83">
-        <v>12644.712182061579</v>
+        <v>12978.045515394911</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8869,7 +8872,7 @@
         <v>29</v>
       </c>
       <c r="D84">
-        <v>12822.489959839357</v>
+        <v>13266.934404283802</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8883,7 +8886,7 @@
         <v>30</v>
       </c>
       <c r="D85">
-        <v>12822.489959839357</v>
+        <v>13266.934404283802</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8897,7 +8900,7 @@
         <v>29</v>
       </c>
       <c r="D86">
-        <v>13000.267737617136</v>
+        <v>13555.823293172691</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8911,7 +8914,7 @@
         <v>30</v>
       </c>
       <c r="D87">
-        <v>13000.267737617136</v>
+        <v>13555.823293172691</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8925,7 +8928,7 @@
         <v>29</v>
       </c>
       <c r="D88">
-        <v>13178.045515394913</v>
+        <v>13700.267737617136</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8939,7 +8942,7 @@
         <v>30</v>
       </c>
       <c r="D89">
-        <v>13178.045515394913</v>
+        <v>13700.267737617136</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8953,7 +8956,7 @@
         <v>29</v>
       </c>
       <c r="D90">
-        <v>13533.601070950474</v>
+        <v>13844.712182061579</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8967,7 +8970,7 @@
         <v>30</v>
       </c>
       <c r="D91">
-        <v>13533.601070950474</v>
+        <v>13844.712182061579</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8981,7 +8984,7 @@
         <v>29</v>
       </c>
       <c r="D92">
-        <v>14066.934404283802</v>
+        <v>14566.934404283802</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8995,7 +8998,7 @@
         <v>30</v>
       </c>
       <c r="D93">
-        <v>14066.934404283802</v>
+        <v>14566.934404283802</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9009,7 +9012,7 @@
         <v>29</v>
       </c>
       <c r="D94">
-        <v>14955.823293172691</v>
+        <v>15289.156626506023</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9023,7 +9026,7 @@
         <v>30</v>
       </c>
       <c r="D95">
-        <v>14955.823293172691</v>
+        <v>15289.156626506023</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9037,7 +9040,7 @@
         <v>29</v>
       </c>
       <c r="D96">
-        <v>15844.712182061579</v>
+        <v>16011.378848728245</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9051,7 +9054,7 @@
         <v>30</v>
       </c>
       <c r="D97">
-        <v>15844.712182061579</v>
+        <v>16011.378848728245</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9121,7 +9124,7 @@
         <v>29</v>
       </c>
       <c r="D102">
-        <v>13784.738955823294</v>
+        <v>14218.072289156627</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9135,7 +9138,7 @@
         <v>30</v>
       </c>
       <c r="D103">
-        <v>13784.738955823294</v>
+        <v>14218.072289156627</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9149,7 +9152,7 @@
         <v>29</v>
       </c>
       <c r="D104">
-        <v>14140.294511378848</v>
+        <v>14362.516733601067</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9163,7 +9166,7 @@
         <v>30</v>
       </c>
       <c r="D105">
-        <v>14140.294511378848</v>
+        <v>14362.516733601067</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9177,7 +9180,7 @@
         <v>29</v>
       </c>
       <c r="D106">
-        <v>14318.072289156626</v>
+        <v>14651.405622489958</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9191,7 +9194,7 @@
         <v>30</v>
       </c>
       <c r="D107">
-        <v>14318.072289156626</v>
+        <v>14651.405622489958</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9205,7 +9208,7 @@
         <v>29</v>
       </c>
       <c r="D108">
-        <v>14495.850066934405</v>
+        <v>14940.294511378848</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9219,7 +9222,7 @@
         <v>30</v>
       </c>
       <c r="D109">
-        <v>14495.850066934405</v>
+        <v>14940.294511378848</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9233,7 +9236,7 @@
         <v>29</v>
       </c>
       <c r="D110">
-        <v>14673.627844712182</v>
+        <v>15229.183400267737</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9247,7 +9250,7 @@
         <v>30</v>
       </c>
       <c r="D111">
-        <v>14673.627844712182</v>
+        <v>15229.183400267737</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9261,7 +9264,7 @@
         <v>29</v>
       </c>
       <c r="D112">
-        <v>14851.40562248996</v>
+        <v>15373.627844712182</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9275,7 +9278,7 @@
         <v>30</v>
       </c>
       <c r="D113">
-        <v>14851.40562248996</v>
+        <v>15373.627844712182</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9289,7 +9292,7 @@
         <v>29</v>
       </c>
       <c r="D114">
-        <v>15206.961178045516</v>
+        <v>15518.072289156626</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9303,7 +9306,7 @@
         <v>30</v>
       </c>
       <c r="D115">
-        <v>15206.961178045516</v>
+        <v>15518.072289156626</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9317,7 +9320,7 @@
         <v>29</v>
       </c>
       <c r="D116">
-        <v>15740.294511378848</v>
+        <v>16240.294511378848</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9331,7 +9334,7 @@
         <v>30</v>
       </c>
       <c r="D117">
-        <v>15740.294511378848</v>
+        <v>16240.294511378848</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9345,7 +9348,7 @@
         <v>29</v>
       </c>
       <c r="D118">
-        <v>16629.183400267739</v>
+        <v>16962.516733601071</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9359,7 +9362,7 @@
         <v>30</v>
       </c>
       <c r="D119">
-        <v>16629.183400267739</v>
+        <v>16962.516733601071</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9373,7 +9376,7 @@
         <v>29</v>
       </c>
       <c r="D120">
-        <v>17518.072289156626</v>
+        <v>17684.738955823294</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9387,7 +9390,7 @@
         <v>30</v>
       </c>
       <c r="D121">
-        <v>17518.072289156626</v>
+        <v>17684.738955823294</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9419,16 +9422,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{2DF4DEEF-A93C-409A-8A43-4FFFEB4CC718}"/>
+  <autoFilter ref="A3:D123" xr:uid="{0E800F06-67B8-4F54-AE7A-E91AEC048DB6}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{8226A1CF-72B2-4C0F-B2DB-6FF5997296D4}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{35A048E2-885E-4EB4-93C6-9EFDC99D897B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871F7D0A-E80E-45AC-B321-755AE4059A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AADBB81-E4AA-4B87-8CB2-76455B5A3A52}">
   <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9521,7 +9524,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>14427.247451343839</v>
+        <v>13710.635646032406</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9549,7 +9552,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>14962.851405622492</v>
+        <v>13861.015490533562</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9577,7 +9580,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>15265.584075432162</v>
+        <v>14196.478220574609</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9605,7 +9608,7 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>15595.837897042718</v>
+        <v>14587.851405622492</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9633,7 +9636,7 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>15957.544463568556</v>
+        <v>15050.383351588171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9647,7 +9650,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>8157.9651941097727</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9661,7 +9664,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>16157.965194109773</v>
+        <v>15314.687320711415</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9675,7 +9678,7 @@
         <v>29</v>
       </c>
       <c r="D18">
-        <v>8513.5207496653293</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9689,7 +9692,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>16513.520749665327</v>
+        <v>15605.421686746988</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9703,7 +9706,7 @@
         <v>29</v>
       </c>
       <c r="D20">
-        <v>9046.8540829986614</v>
+        <v>8546.8540829986614</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9717,7 +9720,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>17046.85408299866</v>
+        <v>16546.85408299866</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9731,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>9935.7429718875483</v>
+        <v>9269.0763052208822</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9745,7 +9748,7 @@
         <v>30</v>
       </c>
       <c r="D23">
-        <v>17935.74297188755</v>
+        <v>17269.076305220882</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9759,7 +9762,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>10824.631860776439</v>
+        <v>9991.2985274431048</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9773,7 +9776,7 @@
         <v>30</v>
       </c>
       <c r="D25">
-        <v>18824.631860776441</v>
+        <v>17991.298527443105</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9843,7 +9846,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>8764.6586345381529</v>
+        <v>8197.991967871485</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9857,7 +9860,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>16764.658634538155</v>
+        <v>16197.991967871487</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9871,7 +9874,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>9120.2141900937077</v>
+        <v>8342.4364123159285</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9885,7 +9888,7 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>17120.214190093706</v>
+        <v>16342.436412315928</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9899,7 +9902,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>9297.991967871485</v>
+        <v>8631.325301204819</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9913,7 +9916,7 @@
         <v>30</v>
       </c>
       <c r="D35">
-        <v>17297.991967871487</v>
+        <v>16631.325301204819</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9927,7 +9930,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>9475.7697456492642</v>
+        <v>8920.2141900937077</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9941,7 +9944,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>17475.769745649264</v>
+        <v>16920.214190093706</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9955,7 +9958,7 @@
         <v>29</v>
       </c>
       <c r="D38">
-        <v>9653.5475234270416</v>
+        <v>9209.1030789825963</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9969,7 +9972,7 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>17653.547523427042</v>
+        <v>17209.103078982596</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9983,7 +9986,7 @@
         <v>29</v>
       </c>
       <c r="D40">
-        <v>9831.325301204819</v>
+        <v>9353.5475234270416</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9997,7 +10000,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>17831.325301204819</v>
+        <v>17353.547523427042</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10011,7 +10014,7 @@
         <v>29</v>
       </c>
       <c r="D42">
-        <v>10186.880856760377</v>
+        <v>9497.991967871485</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10025,7 +10028,7 @@
         <v>30</v>
       </c>
       <c r="D43">
-        <v>18186.880856760374</v>
+        <v>17497.991967871487</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10039,7 +10042,7 @@
         <v>29</v>
       </c>
       <c r="D44">
-        <v>10720.214190093708</v>
+        <v>10220.214190093708</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10053,7 +10056,7 @@
         <v>30</v>
       </c>
       <c r="D45">
-        <v>18720.214190093706</v>
+        <v>18220.214190093706</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10067,7 +10070,7 @@
         <v>29</v>
       </c>
       <c r="D46">
-        <v>11609.103078982593</v>
+        <v>10942.436412315927</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10081,7 +10084,7 @@
         <v>30</v>
       </c>
       <c r="D47">
-        <v>19609.103078982593</v>
+        <v>18942.436412315925</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10095,7 +10098,7 @@
         <v>29</v>
       </c>
       <c r="D48">
-        <v>12497.991967871485</v>
+        <v>11664.658634538153</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10109,7 +10112,7 @@
         <v>30</v>
       </c>
       <c r="D49">
-        <v>20497.991967871487</v>
+        <v>19664.658634538151</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10179,7 +10182,7 @@
         <v>29</v>
       </c>
       <c r="D54">
-        <v>10438.018741633199</v>
+        <v>9871.3520749665331</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10193,7 +10196,7 @@
         <v>30</v>
       </c>
       <c r="D55">
-        <v>18438.018741633201</v>
+        <v>17871.352074966533</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10207,7 +10210,7 @@
         <v>29</v>
       </c>
       <c r="D56">
-        <v>10793.574297188756</v>
+        <v>10015.796519410977</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10221,7 +10224,7 @@
         <v>30</v>
       </c>
       <c r="D57">
-        <v>18793.574297188756</v>
+        <v>18015.796519410975</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10235,7 +10238,7 @@
         <v>29</v>
       </c>
       <c r="D58">
-        <v>10971.352074966533</v>
+        <v>10304.685408299867</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10249,7 +10252,7 @@
         <v>30</v>
       </c>
       <c r="D59">
-        <v>18971.352074966533</v>
+        <v>18304.685408299869</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10263,7 +10266,7 @@
         <v>29</v>
       </c>
       <c r="D60">
-        <v>11149.12985274431</v>
+        <v>10593.574297188756</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10277,7 +10280,7 @@
         <v>30</v>
       </c>
       <c r="D61">
-        <v>19149.12985274431</v>
+        <v>18593.574297188756</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10291,7 +10294,7 @@
         <v>29</v>
       </c>
       <c r="D62">
-        <v>11326.907630522088</v>
+        <v>10882.463186077644</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10305,7 +10308,7 @@
         <v>30</v>
       </c>
       <c r="D63">
-        <v>19326.907630522088</v>
+        <v>18882.463186077643</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10319,7 +10322,7 @@
         <v>29</v>
       </c>
       <c r="D64">
-        <v>11504.685408299865</v>
+        <v>11026.907630522088</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10333,7 +10336,7 @@
         <v>30</v>
       </c>
       <c r="D65">
-        <v>19504.685408299865</v>
+        <v>19026.907630522088</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10347,7 +10350,7 @@
         <v>29</v>
       </c>
       <c r="D66">
-        <v>11860.240963855422</v>
+        <v>11171.352074966533</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10361,7 +10364,7 @@
         <v>30</v>
       </c>
       <c r="D67">
-        <v>19860.24096385542</v>
+        <v>19171.352074966533</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10375,7 +10378,7 @@
         <v>29</v>
       </c>
       <c r="D68">
-        <v>12393.574297188756</v>
+        <v>11893.574297188756</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10389,7 +10392,7 @@
         <v>30</v>
       </c>
       <c r="D69">
-        <v>20393.574297188756</v>
+        <v>19893.574297188756</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10403,7 +10406,7 @@
         <v>29</v>
       </c>
       <c r="D70">
-        <v>13282.463186077639</v>
+        <v>12615.796519410973</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10417,7 +10420,7 @@
         <v>30</v>
       </c>
       <c r="D71">
-        <v>21282.463186077639</v>
+        <v>20615.796519410971</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10431,7 +10434,7 @@
         <v>29</v>
       </c>
       <c r="D72">
-        <v>14171.352074966533</v>
+        <v>13338.018741633199</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10445,7 +10448,7 @@
         <v>30</v>
       </c>
       <c r="D73">
-        <v>22171.352074966533</v>
+        <v>21338.018741633197</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10515,7 +10518,7 @@
         <v>29</v>
       </c>
       <c r="D78">
-        <v>12111.378848728245</v>
+        <v>11544.712182061579</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10529,7 +10532,7 @@
         <v>30</v>
       </c>
       <c r="D79">
-        <v>20111.378848728247</v>
+        <v>19544.712182061579</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10543,7 +10546,7 @@
         <v>29</v>
       </c>
       <c r="D80">
-        <v>12466.934404283802</v>
+        <v>11689.156626506023</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10557,7 +10560,7 @@
         <v>30</v>
       </c>
       <c r="D81">
-        <v>20466.934404283802</v>
+        <v>19689.156626506025</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10571,7 +10574,7 @@
         <v>29</v>
       </c>
       <c r="D82">
-        <v>12644.712182061579</v>
+        <v>11978.045515394911</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10585,7 +10588,7 @@
         <v>30</v>
       </c>
       <c r="D83">
-        <v>20644.712182061579</v>
+        <v>19978.045515394915</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10599,7 +10602,7 @@
         <v>29</v>
       </c>
       <c r="D84">
-        <v>12822.489959839357</v>
+        <v>12266.934404283802</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10613,7 +10616,7 @@
         <v>30</v>
       </c>
       <c r="D85">
-        <v>20822.489959839357</v>
+        <v>20266.934404283802</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10627,7 +10630,7 @@
         <v>29</v>
       </c>
       <c r="D86">
-        <v>13000.267737617136</v>
+        <v>12555.823293172691</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10641,7 +10644,7 @@
         <v>30</v>
       </c>
       <c r="D87">
-        <v>21000.267737617134</v>
+        <v>20555.823293172689</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10655,7 +10658,7 @@
         <v>29</v>
       </c>
       <c r="D88">
-        <v>13178.045515394913</v>
+        <v>12700.267737617136</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10669,7 +10672,7 @@
         <v>30</v>
       </c>
       <c r="D89">
-        <v>21178.045515394915</v>
+        <v>20700.267737617134</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10683,7 +10686,7 @@
         <v>29</v>
       </c>
       <c r="D90">
-        <v>13533.60107095047</v>
+        <v>12844.712182061579</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10697,7 +10700,7 @@
         <v>30</v>
       </c>
       <c r="D91">
-        <v>21533.601070950466</v>
+        <v>20844.712182061579</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10711,7 +10714,7 @@
         <v>29</v>
       </c>
       <c r="D92">
-        <v>14066.934404283802</v>
+        <v>13566.934404283802</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10725,7 +10728,7 @@
         <v>30</v>
       </c>
       <c r="D93">
-        <v>22066.934404283802</v>
+        <v>21566.934404283802</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10739,7 +10742,7 @@
         <v>29</v>
       </c>
       <c r="D94">
-        <v>14955.823293172685</v>
+        <v>14289.156626506019</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10753,7 +10756,7 @@
         <v>30</v>
       </c>
       <c r="D95">
-        <v>22955.823293172685</v>
+        <v>22289.156626506017</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10767,7 +10770,7 @@
         <v>29</v>
       </c>
       <c r="D96">
-        <v>15844.712182061579</v>
+        <v>15011.378848728245</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10781,7 +10784,7 @@
         <v>30</v>
       </c>
       <c r="D97">
-        <v>23844.712182061579</v>
+        <v>23011.378848728244</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10851,7 +10854,7 @@
         <v>29</v>
       </c>
       <c r="D102">
-        <v>13784.738955823294</v>
+        <v>13218.072289156627</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10865,7 +10868,7 @@
         <v>30</v>
       </c>
       <c r="D103">
-        <v>21784.738955823297</v>
+        <v>21218.072289156626</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10879,7 +10882,7 @@
         <v>29</v>
       </c>
       <c r="D104">
-        <v>14140.294511378848</v>
+        <v>13362.516733601067</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10893,7 +10896,7 @@
         <v>30</v>
       </c>
       <c r="D105">
-        <v>22140.294511378848</v>
+        <v>21362.516733601071</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10907,7 +10910,7 @@
         <v>29</v>
       </c>
       <c r="D106">
-        <v>14318.072289156626</v>
+        <v>13651.405622489958</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10921,7 +10924,7 @@
         <v>30</v>
       </c>
       <c r="D107">
-        <v>22318.072289156626</v>
+        <v>21651.405622489961</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10935,7 +10938,7 @@
         <v>29</v>
       </c>
       <c r="D108">
-        <v>14495.850066934405</v>
+        <v>13940.294511378848</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10949,7 +10952,7 @@
         <v>30</v>
       </c>
       <c r="D109">
-        <v>22495.850066934407</v>
+        <v>21940.294511378848</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10963,7 +10966,7 @@
         <v>29</v>
       </c>
       <c r="D110">
-        <v>14673.627844712182</v>
+        <v>14229.183400267737</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10977,7 +10980,7 @@
         <v>30</v>
       </c>
       <c r="D111">
-        <v>22673.62784471218</v>
+        <v>22229.183400267735</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -10991,7 +10994,7 @@
         <v>29</v>
       </c>
       <c r="D112">
-        <v>14851.40562248996</v>
+        <v>14373.627844712182</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11005,7 +11008,7 @@
         <v>30</v>
       </c>
       <c r="D113">
-        <v>22851.405622489961</v>
+        <v>22373.62784471218</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11019,7 +11022,7 @@
         <v>29</v>
       </c>
       <c r="D114">
-        <v>15206.961178045516</v>
+        <v>14518.072289156626</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11033,7 +11036,7 @@
         <v>30</v>
       </c>
       <c r="D115">
-        <v>23206.961178045516</v>
+        <v>22518.072289156626</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11047,7 +11050,7 @@
         <v>29</v>
       </c>
       <c r="D116">
-        <v>15740.294511378848</v>
+        <v>15240.294511378848</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11061,7 +11064,7 @@
         <v>30</v>
       </c>
       <c r="D117">
-        <v>23740.294511378848</v>
+        <v>23240.294511378848</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11075,7 +11078,7 @@
         <v>29</v>
       </c>
       <c r="D118">
-        <v>16629.183400267735</v>
+        <v>15962.516733601067</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11089,7 +11092,7 @@
         <v>30</v>
       </c>
       <c r="D119">
-        <v>24629.183400267735</v>
+        <v>23962.516733601067</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11103,7 +11106,7 @@
         <v>29</v>
       </c>
       <c r="D120">
-        <v>17518.072289156626</v>
+        <v>16684.738955823294</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11117,7 +11120,7 @@
         <v>30</v>
       </c>
       <c r="D121">
-        <v>25518.072289156626</v>
+        <v>24684.738955823294</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -11149,16 +11152,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D123" xr:uid="{FA78AFB0-C8C0-4D64-9CFF-3F37D2486178}"/>
+  <autoFilter ref="A3:D123" xr:uid="{F2848596-5BD1-4F82-9C36-9C26792D1470}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B57E1490-A9D8-42EF-B843-43816C9910B5}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{D703E70E-8F4D-4E8F-8D12-2C00450D3A0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6715B76-C359-4DEA-B71C-1E2C90F29FBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F1512D-CE2C-4B5B-9F3E-80084A2A28C9}">
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11856,16 +11859,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C63" xr:uid="{BC19AEB9-854D-4F66-938C-C9C68051BE2B}"/>
+  <autoFilter ref="A3:C63" xr:uid="{F8A2E69C-0349-4022-9C0D-38CE97BB314A}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{EEA94096-BE30-4DD5-8014-1F490E04C848}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3041A833-B80F-4AAF-96DD-87CB895BD8B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE647758-EC7A-4188-A3AA-2CA6BFA3DA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3D850E-749D-4144-9775-04CEE7261A30}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11943,16 +11946,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{F802C59E-59AC-408B-AC57-7684DD6DA834}"/>
+  <autoFilter ref="A3:E5" xr:uid="{F1E29BD7-A50F-4922-A8DD-09A8CBED7453}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7927C501-F4EC-494F-BB77-1BF28287A25E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{26726A8A-8BA2-4CEC-A894-790A10E40B10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85FB2BD-E703-4083-A983-E3DBBD3EE0E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E0E172-F9C8-4171-A2D0-A5AB509F4747}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12009,16 +12012,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A8" xr:uid="{CD5E0C9B-816B-4557-A253-9C9D0F51356A}"/>
+  <autoFilter ref="A3:A8" xr:uid="{F5C2D4DC-17F7-4132-A50C-460846176EEF}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A048DE67-370C-4DA1-9AE3-E1F8101C016B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{514645FC-330E-4D5B-B07F-7EBF1D75BD9C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E1FAC8-7C59-47D9-8D75-AE220DD6483A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B91AE7DC-4C41-4D2C-852B-6CE985A09B26}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12093,16 +12096,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B8" xr:uid="{811AC8D4-EF75-470A-B724-25C6DD03D9AF}"/>
+  <autoFilter ref="A3:B8" xr:uid="{7B4E98ED-504C-4E99-A171-32CB4AE42C73}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{4707A300-B102-4CA6-9937-92EC5293E24B}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FC2476BF-ECE6-43FC-8BCB-28D686885279}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2CC3D1-2325-4A71-95E9-CF7ACB7CDF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF1D1A7-EA02-42C6-911A-B4736CF30ABA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12153,16 +12156,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{DD9080CE-37E1-4988-BA19-345F9F09B8EE}"/>
+  <autoFilter ref="A3:B5" xr:uid="{046F4260-C289-46F5-989E-BCBFCC65FDB9}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C1B78529-32F9-4EFA-8038-A97488B20E6A}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{CCB16F5A-52FF-4A5E-BC36-D7E272FC6F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C9E03F7-3E43-4FF6-9196-1DE383D5B045}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16B52D0-7593-4C06-B3AF-3268F4C7B644}">
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12207,7 +12210,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>28531.200000000001</v>
+        <v>8024.4000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12218,7 +12221,7 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>42796.800000000003</v>
+        <v>16048.800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12229,7 +12232,7 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>49929.599999999999</v>
+        <v>32097.600000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12240,7 +12243,7 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>57062.400000000001</v>
+        <v>48146.400000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12262,7 +12265,7 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>72736.417670682742</v>
+        <v>72219.600000000006</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12273,7 +12276,7 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>91087.861204819274</v>
+        <v>80244</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12284,7 +12287,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>120992.62650602411</v>
+        <v>127679.6265060241</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12295,7 +12298,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>177174.16867469877</v>
+        <v>183118.1686746988</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12306,7 +12309,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>241281.04417670684</v>
+        <v>244996.04417670681</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12328,7 +12331,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>31258.278554216871</v>
+        <v>8200.9296385542166</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12339,7 +12342,7 @@
         <v>9</v>
       </c>
       <c r="C16">
-        <v>48789.497831325309</v>
+        <v>16659.432610441763</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12350,7 +12353,7 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>58030.627469879517</v>
+        <v>34349.158554216869</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12361,7 +12364,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>67588.770441767076</v>
+        <v>53069.177831325302</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12372,7 +12375,7 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>77463.926746987956</v>
+        <v>72819.490441767062</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12383,7 +12386,7 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>87656.096385542172</v>
+        <v>83081.006746987958</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12394,7 +12397,7 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>108991.47566265063</v>
+        <v>93600.096385542158</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12405,7 +12408,7 @@
         <v>15</v>
       </c>
       <c r="C22">
-        <v>143372.14457831328</v>
+        <v>150059.14457831325</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12416,7 +12419,7 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>207013.52610441769</v>
+        <v>212957.52610441763</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12427,7 +12430,7 @@
         <v>17</v>
       </c>
       <c r="C24">
-        <v>278580.24096385541</v>
+        <v>282295.24096385547</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12449,7 +12452,7 @@
         <v>8</v>
       </c>
       <c r="C26">
-        <v>37226.150040160646</v>
+        <v>9692.8975100401622</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12460,7 +12463,7 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>57741.305060240978</v>
+        <v>19643.368353413654</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12471,7 +12474,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>68474.402570281134</v>
+        <v>40317.030040160644</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12482,7 +12485,7 @@
         <v>11</v>
       </c>
       <c r="C29">
-        <v>79524.513413654611</v>
+        <v>62020.985060240979</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12493,7 +12496,7 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>90891.637590361453</v>
+        <v>84755.233413654627</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12504,7 +12507,7 @@
         <v>13</v>
       </c>
       <c r="C31">
-        <v>102575.77510040163</v>
+        <v>96508.717590361441</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12515,7 +12518,7 @@
         <v>14</v>
       </c>
       <c r="C32">
-        <v>126895.09012048189</v>
+        <v>108519.77510040162</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12526,7 +12529,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <v>165751.66265060246</v>
+        <v>172438.66265060243</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12537,7 +12540,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <v>236852.88353413652</v>
+        <v>242796.88353413658</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12548,7 +12551,7 @@
         <v>17</v>
       </c>
       <c r="C35">
-        <v>315879.43775100401</v>
+        <v>319594.43775100401</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12570,7 +12573,7 @@
         <v>8</v>
       </c>
       <c r="C37">
-        <v>43194.021526104421</v>
+        <v>11184.865381526104</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12581,7 +12584,7 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>66693.112289156619</v>
+        <v>22627.304096385542</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12592,7 +12595,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <v>78918.177670682737</v>
+        <v>46284.901526104411</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12603,7 +12606,7 @@
         <v>11</v>
       </c>
       <c r="C40">
-        <v>91460.256385542176</v>
+        <v>70972.792289156627</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12614,7 +12617,7 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>104319.34843373497</v>
+        <v>96690.976385542177</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12625,7 +12628,7 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>117495.45381526105</v>
+        <v>109936.42843373495</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12636,7 +12639,7 @@
         <v>14</v>
       </c>
       <c r="C43">
-        <v>144798.70457831331</v>
+        <v>123439.45381526106</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12647,7 +12650,7 @@
         <v>15</v>
       </c>
       <c r="C44">
-        <v>188131.18072289156</v>
+        <v>194818.18072289159</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12658,7 +12661,7 @@
         <v>16</v>
       </c>
       <c r="C45">
-        <v>266692.24096385541</v>
+        <v>272636.24096385541</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12669,7 +12672,7 @@
         <v>17</v>
       </c>
       <c r="C46">
-        <v>353178.6345381526</v>
+        <v>356893.6345381526</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12691,7 +12694,7 @@
         <v>8</v>
       </c>
       <c r="C48">
-        <v>49161.893012048196</v>
+        <v>12676.83325301205</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12702,7 +12705,7 @@
         <v>9</v>
       </c>
       <c r="C49">
-        <v>75644.919518072304</v>
+        <v>25611.239839357426</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12713,7 +12716,7 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <v>89361.952771084339</v>
+        <v>52252.773012048194</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12724,7 +12727,7 @@
         <v>11</v>
       </c>
       <c r="C51">
-        <v>103395.99935742973</v>
+        <v>79924.599518072297</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12735,7 +12738,7 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>117747.05927710845</v>
+        <v>108626.71935742973</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12746,7 +12749,7 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>132415.13253012049</v>
+        <v>123364.13927710845</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12757,7 +12760,7 @@
         <v>14</v>
       </c>
       <c r="C54">
-        <v>162702.31903614459</v>
+        <v>138359.13253012049</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12768,7 +12771,7 @@
         <v>15</v>
       </c>
       <c r="C55">
-        <v>210510.69879518074</v>
+        <v>217197.69879518077</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12779,7 +12782,7 @@
         <v>16</v>
       </c>
       <c r="C56">
-        <v>296531.59839357436</v>
+        <v>302475.59839357436</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12790,7 +12793,7 @@
         <v>17</v>
       </c>
       <c r="C57">
-        <v>390477.8313253012</v>
+        <v>394192.8313253012</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12805,16 +12808,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C58" xr:uid="{DD08BE61-6A14-4270-B35B-B3C3DA041887}"/>
+  <autoFilter ref="A3:C58" xr:uid="{52006006-449D-4A85-8C27-4285E4F19F10}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{55E7159C-BF06-4588-B20C-B96BD5B8636D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3ADB30DC-1D92-46CB-AB6D-C927037E50B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D1B42C-5681-4416-BC2F-E1E9BA18F133}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA3B125-F6CC-40CC-9930-B42127CAD846}">
   <dimension ref="A1:C58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12870,7 +12873,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>284782.05301204824</v>
+        <v>305288.85301204823</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12881,7 +12884,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>270516.45301204827</v>
+        <v>297264.45301204821</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12892,7 +12895,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>263383.65301204822</v>
+        <v>281215.65301204828</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12903,7 +12906,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>256250.85301204823</v>
+        <v>265166.85301204823</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12914,7 +12917,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>249118.05301204816</v>
+        <v>249118.05301204819</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12925,7 +12928,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>240576.83534136551</v>
+        <v>241093.65301204819</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12936,7 +12939,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>222225.39180722894</v>
+        <v>233069.2530120482</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12947,7 +12950,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>192320.6265060241</v>
+        <v>185633.6265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12958,7 +12961,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>136139.0843373494</v>
+        <v>130195.0843373494</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12969,7 +12972,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>72032.208835341386</v>
+        <v>68317.208835341356</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -12991,7 +12994,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>326814.01060240966</v>
+        <v>349871.35951807228</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13002,7 +13005,7 @@
         <v>9</v>
       </c>
       <c r="C17">
-        <v>309282.79132530116</v>
+        <v>341412.85654618475</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13013,7 +13016,7 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>300041.66168674699</v>
+        <v>323723.13060240966</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13024,7 +13027,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>290483.51871485944</v>
+        <v>305003.11132530117</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13035,7 +13038,7 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>280608.36240963859</v>
+        <v>285252.79871485947</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13046,7 +13049,7 @@
         <v>13</v>
       </c>
       <c r="C21">
-        <v>270416.19277108437</v>
+        <v>274991.28240963857</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13057,7 +13060,7 @@
         <v>14</v>
       </c>
       <c r="C22">
-        <v>249080.81349397593</v>
+        <v>264472.19277108437</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13068,7 +13071,7 @@
         <v>15</v>
       </c>
       <c r="C23">
-        <v>214700.14457831325</v>
+        <v>208013.14457831325</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13079,7 +13082,7 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>151058.76305220881</v>
+        <v>145114.76305220881</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13090,7 +13093,7 @@
         <v>17</v>
       </c>
       <c r="C25">
-        <v>79492.048192771093</v>
+        <v>75777.048192771093</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13112,7 +13115,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>365605.17526104423</v>
+        <v>393138.42779116466</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13123,7 +13126,7 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>345090.0202409639</v>
+        <v>383187.95694779116</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13134,7 +13137,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <v>334356.92273092369</v>
+        <v>362514.29526104423</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13145,7 +13148,7 @@
         <v>11</v>
       </c>
       <c r="C30">
-        <v>323306.81188755017</v>
+        <v>340810.34024096385</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13156,7 +13159,7 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>311939.68771084334</v>
+        <v>318076.09188755025</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13167,7 +13170,7 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>300255.55020080321</v>
+        <v>306322.60771084338</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13178,7 +13181,7 @@
         <v>14</v>
       </c>
       <c r="C33">
-        <v>275936.2351807229</v>
+        <v>294311.55020080326</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13189,7 +13192,7 @@
         <v>15</v>
       </c>
       <c r="C34">
-        <v>237079.66265060243</v>
+        <v>230392.66265060243</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13200,7 +13203,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <v>165978.44176706826</v>
+        <v>160034.44176706823</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13211,7 +13214,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <v>86951.887550200801</v>
+        <v>83236.887550200801</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13233,7 +13236,7 @@
         <v>8</v>
       </c>
       <c r="C38">
-        <v>404396.33991967875</v>
+        <v>436405.49606425705</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13244,7 +13247,7 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>380897.24915662652</v>
+        <v>424963.05734939763</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13255,7 +13258,7 @@
         <v>10</v>
       </c>
       <c r="C40">
-        <v>368672.18377510039</v>
+        <v>401305.4599196788</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13266,7 +13269,7 @@
         <v>11</v>
       </c>
       <c r="C41">
-        <v>356130.10506024095</v>
+        <v>376617.56915662653</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13277,7 +13280,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>343271.01301204821</v>
+        <v>350899.38506024098</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13288,7 +13291,7 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>330094.90763052215</v>
+        <v>337653.93301204825</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13299,7 +13302,7 @@
         <v>14</v>
       </c>
       <c r="C44">
-        <v>302791.65686746984</v>
+        <v>324150.90763052215</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13310,7 +13313,7 @@
         <v>15</v>
       </c>
       <c r="C45">
-        <v>259459.18072289159</v>
+        <v>252772.18072289162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13321,7 +13324,7 @@
         <v>16</v>
       </c>
       <c r="C46">
-        <v>180898.1204819277</v>
+        <v>174954.12048192768</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13332,7 +13335,7 @@
         <v>17</v>
       </c>
       <c r="C47">
-        <v>94411.726907630524</v>
+        <v>90696.726907630524</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13354,7 +13357,7 @@
         <v>8</v>
       </c>
       <c r="C49">
-        <v>443187.50457831332</v>
+        <v>479672.56433734938</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13365,7 +13368,7 @@
         <v>9</v>
       </c>
       <c r="C50">
-        <v>416704.47807228914</v>
+        <v>466738.15775100404</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13376,7 +13379,7 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <v>402987.44481927709</v>
+        <v>440096.62457831326</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13387,7 +13390,7 @@
         <v>11</v>
       </c>
       <c r="C52">
-        <v>388953.3982329318</v>
+        <v>412424.79807228921</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13398,7 +13401,7 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>374602.33831325301</v>
+        <v>383722.67823293165</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13409,7 +13412,7 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>359934.26506024098</v>
+        <v>368985.25831325306</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13420,7 +13423,7 @@
         <v>14</v>
       </c>
       <c r="C55">
-        <v>329647.07855421689</v>
+        <v>353990.26506024093</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13431,7 +13434,7 @@
         <v>15</v>
       </c>
       <c r="C56">
-        <v>281838.69879518077</v>
+        <v>275151.69879518071</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13442,7 +13445,7 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>195817.79919678718</v>
+        <v>189873.79919678712</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13453,20 +13456,20 @@
         <v>17</v>
       </c>
       <c r="C58">
-        <v>101871.56626506025</v>
+        <v>98156.566265060246</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:C58" xr:uid="{C7B1BD94-498F-4199-95F0-73C04E0F8C1A}"/>
+  <autoFilter ref="A3:C58" xr:uid="{8FC8E686-AF62-4D36-9700-51238C964F05}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{6E9BE871-9071-4C70-88F8-A9FC1AF9F5FE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{C0AF8A05-D783-4D08-9528-878E35791775}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{636E28CC-F89A-40B2-A1DE-4DD68C6776D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B65FFB-B762-4CB4-A75B-66AD96E83572}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13489,7 +13492,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13558,16 +13561,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A15" xr:uid="{6F067DAA-CBD9-4293-BE00-A781EB485245}"/>
+  <autoFilter ref="A3:A15" xr:uid="{D32E0412-0BDF-41F7-A077-8021EAF4FD16}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{49A4EF57-0010-4350-8BE0-29D4F6E3830E}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{FA630564-F894-472C-970C-7303A8766CE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C317D7D-BEB1-4097-BAF8-72DCA6382B5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42334B5-1943-48A4-9274-2C327337CBC8}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13584,181 +13587,181 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:A33" xr:uid="{4E4BE4BB-80AB-48C2-9D6D-2F1A946DF80B}"/>
+  <autoFilter ref="A3:A33" xr:uid="{0BACB401-A6FC-42AB-9E29-85F02616EF0D}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{A280728A-3E8F-494C-9781-EB25CF41150D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3BCF7B9C-4B29-4962-B50A-CF81C880841C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D388C7C8-E24E-49CF-B2AA-6D2B7467FCA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE7F570-2C9B-42A6-AD4D-76C53C7190B2}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13775,13 +13778,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13809,16 +13812,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{9842A251-F915-4686-BA4F-CE33FE71B2F2}"/>
+  <autoFilter ref="A3:B5" xr:uid="{C6129972-5853-4D3B-BD6E-FFADCE3691EE}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{401CC2EE-0FD1-4AD8-873E-82FE3B871ADE}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{BCE39BC2-CC65-400A-BB41-B97D8641B731}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C7D571-6226-4326-9036-28285F9BB776}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28956C65-4CCA-417F-A2CE-11C030C86440}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13835,13 +13838,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -13869,16 +13872,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:B5" xr:uid="{EC1D7FD8-C4F7-4099-ACAC-A064CCF347E1}"/>
+  <autoFilter ref="A3:B5" xr:uid="{60626531-0817-4ADB-8A81-3F61BC8EC335}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{63E359E4-20FC-4345-8513-0FCC16D69433}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{30127E99-11BB-4A94-8BDE-90596AED76D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45837057-CF79-49E8-BFC3-3F1EEE08D6A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779DFAD7-45C6-4E8B-9B0B-9BE2E4C9CBA0}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13895,13 +13898,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -13929,7 +13932,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>5470.548862115128</v>
+        <v>5173.3488621151273</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -13956,16 +13959,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{607BBB57-D0B8-45F4-AA85-4FF3004C7975}"/>
+  <autoFilter ref="A3:E5" xr:uid="{A89F0E5C-28A2-4FE8-BDAF-30FB277B733C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{7278FF9E-8436-4991-9780-48BF2638F91D}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{592416A9-A314-4F70-A10D-A82D442F9807}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DF0A55-A15F-499C-B3D1-7D1BB885050B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FF5648-52F3-4C71-9F62-A2635B869FD7}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13982,13 +13985,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14043,16 +14046,16 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{61BA3054-3EB4-4000-A183-B8AE50A16837}"/>
+  <autoFilter ref="A3:E5" xr:uid="{C87929F2-7DDB-4083-9AE6-0FE8616E9860}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{5EE429F4-DBFC-4577-A8C4-1B8B744E6F85}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{B69118EE-61FB-4132-B31B-DE28E6165C14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788BC9D5-7E15-4ED1-B137-1AF1C5D90962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF71BC97-023E-4371-833E-85D8A134C03F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14069,13 +14072,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -14103,7 +14106,7 @@
         <v>42</v>
       </c>
       <c r="C4">
-        <v>5470.548862115128</v>
+        <v>5173.3488621151273</v>
       </c>
       <c r="D4">
         <v>10560</v>
@@ -14130,9 +14133,9 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:E5" xr:uid="{C4D87146-F1F4-4128-B862-628FF1679FD8}"/>
+  <autoFilter ref="A3:E5" xr:uid="{7A6002DC-ED38-4717-BA23-6FD807F1EA4C}"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{109CAA8E-DA09-4E4C-A716-AE0E1E9B5B3C}"/>
+    <hyperlink ref="A1" location="'Table of Contents'!A1" display="TOC" xr:uid="{3EBE8B13-035B-4EB1-8504-16D299D1090A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
